--- a/варианты/Варианты М.Ишимов/2/22.xlsx
+++ b/варианты/Варианты М.Ишимов/2/22.xlsx
@@ -45,7 +45,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,13 +60,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,17 +92,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -378,7 +371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,15 +382,16 @@
   <dimension ref="A1:AU16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I3"/>
+      <selection activeCell="AT13" sqref="F2:AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="46" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="46" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -535,16 +529,16 @@
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>A2</f>
         <v>1</v>
       </c>
@@ -563,97 +557,59 @@
       <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3">
-        <v>1</v>
-      </c>
-      <c r="V2" s="3">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3">
-        <v>1</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
       <c r="AU2" t="b">
-        <f t="shared" ref="AU2:AU9" si="0">SUM(F2:AT2)=B2</f>
-        <v>0</v>
+        <f>SUM(F2:AT2)=B2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E13" si="1">A3</f>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E13" si="0">A3</f>
         <v>2</v>
       </c>
       <c r="F3" s="3">
@@ -668,725 +624,829 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3">
-        <v>1</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
       <c r="AU3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="AU3:AU13" si="1">SUM(F3:AT3)=B3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" t="b">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="S4" s="3">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
-        <v>1</v>
-      </c>
-      <c r="V4" s="3">
-        <v>1</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" t="b">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" t="b">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="W6" s="6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" t="b">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="5">
-        <v>1</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" t="b">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" t="b">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
       <c r="AU10" t="b">
-        <f t="shared" ref="AU10:AU13" si="2">SUM(F10:AT10)=B10</f>
-        <v>0</v>
+        <f>SUM(L10:AT10)=B10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
       <c r="AU11" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(N11:AT11)=B11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" t="b">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" t="b">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F14">
-        <f t="shared" ref="F14:N14" si="3">SUM(F2:F13)</f>
+        <f t="shared" ref="F14:AT14" si="2">SUM(F2:F13)</f>
         <v>2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K14">
-        <f>SUM(K2:K13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f>SUM(L2:L13)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M14">
-        <f>SUM(M2:M13)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="N14">
-        <f>SUM(N2:N12)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="O14">
-        <f>SUM(O2:O12)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="P14">
-        <f>SUM(P2:P12)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <f>SUM(Q2:Q12)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="R14">
-        <f>SUM(R2:R12)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="S14">
-        <f>SUM(S2:S13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="T14">
-        <f>SUM(T2:T13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="U14">
-        <f>SUM(U2:U13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="V14">
@@ -1406,34 +1466,118 @@
         <v>4</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="O14:AD14" si="4">SUM(Z2:Z13)</f>
-        <v>3</v>
+        <f>SUM(Z2:Z13)</f>
+        <v>4</v>
       </c>
       <c r="AA14">
-        <f>SUM(AA2:AA13)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <f>SUM(AB2:AB13)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <f>SUM(AC2:AC13)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <f>SUM(AD2:AD13)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <f>SUM(AE2:AE13)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="M16" s="7"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F14:AT14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:AT9 F13:M13 S13:AT13 F12:N12 N11:AT11 U12:AT12 L10:AT10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>